--- a/posesiones/1485978.xlsx
+++ b/posesiones/1485978.xlsx
@@ -1814,10 +1814,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1908,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1958,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2008,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>25</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2108,7 +2108,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>20</v>
@@ -2161,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2211,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>10</v>
@@ -2261,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2308,7 +2308,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R13">
         <v>24</v>
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R14">
         <v>15</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2461,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R21">
         <v>28</v>
@@ -2755,7 +2755,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R22">
         <v>21</v>
@@ -2808,7 +2808,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R23">
         <v>15</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2908,7 +2908,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R25">
         <v>4</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3055,7 +3055,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R28">
         <v>15</v>
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3158,7 +3158,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R30">
         <v>27</v>
@@ -3211,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3261,7 +3261,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R32">
         <v>4</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3364,7 +3364,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R34">
         <v>17</v>
@@ -3417,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3464,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3564,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R38">
         <v>13</v>
@@ -3617,7 +3617,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R39">
         <v>21</v>
@@ -3670,7 +3670,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R40">
         <v>21</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3770,7 +3770,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R42">
         <v>25</v>
@@ -3820,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3870,7 +3870,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R44">
         <v>5</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3970,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4020,7 +4020,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R47">
         <v>26</v>
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4173,7 +4173,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R50">
         <v>9</v>
@@ -4223,7 +4223,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4317,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4364,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4414,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4464,7 +4464,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R56">
         <v>22</v>
@@ -4517,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4567,7 +4567,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R58">
         <v>14</v>
@@ -4617,7 +4617,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4667,7 +4667,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R60">
         <v>18</v>
@@ -4720,7 +4720,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R61">
         <v>23</v>
@@ -4773,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4823,7 +4823,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R63">
         <v>9</v>
@@ -4876,7 +4876,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4923,7 +4923,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5017,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5111,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5158,7 +5158,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5205,7 +5205,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5252,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5302,7 +5302,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R73">
         <v>12</v>
@@ -5355,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5405,7 +5405,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R75">
         <v>11</v>
@@ -5455,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5505,7 +5505,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R77">
         <v>14</v>
@@ -5558,7 +5558,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5608,7 +5608,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R79">
         <v>15</v>
@@ -5661,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5711,7 +5711,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R81">
         <v>7</v>
@@ -5761,7 +5761,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5808,7 +5808,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5855,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5902,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5952,7 +5952,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R86">
         <v>12</v>
@@ -6005,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6055,7 +6055,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R88">
         <v>10</v>
@@ -6108,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6158,7 +6158,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R90">
         <v>17</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6261,7 +6261,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R92">
         <v>11</v>
@@ -6314,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6364,7 +6364,7 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R94">
         <v>15</v>
@@ -6414,7 +6414,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6464,7 +6464,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R96">
         <v>14</v>
@@ -6514,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6561,7 +6561,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6611,7 +6611,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R99">
         <v>30</v>
@@ -6655,10 +6655,10 @@
         <v>1</v>
       </c>
       <c r="P100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q100">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6699,10 +6699,10 @@
         <v>1</v>
       </c>
       <c r="P101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q101">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6752,7 +6752,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R102">
         <v>12</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6852,7 +6852,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R104">
         <v>25</v>
@@ -6902,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6952,7 +6952,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7002,7 +7002,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R107">
         <v>15</v>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7105,7 +7105,7 @@
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R109">
         <v>6</v>
@@ -7155,7 +7155,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7205,7 +7205,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7252,7 +7252,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7299,7 +7299,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7346,7 +7346,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7393,7 +7393,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7440,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7487,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7534,7 +7534,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7584,7 +7584,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R119">
         <v>23</v>
@@ -7637,7 +7637,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R120">
         <v>16</v>
@@ -7690,7 +7690,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7740,7 +7740,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R122">
         <v>13</v>
@@ -7793,7 +7793,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7887,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7934,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7981,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8028,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8125,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8175,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R131">
         <v>23</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8278,7 +8278,7 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R133">
         <v>7</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8378,7 +8378,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R135">
         <v>4</v>
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8481,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R137">
         <v>13</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8584,7 +8584,7 @@
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R139">
         <v>9</v>
@@ -8634,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8681,7 +8681,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8728,7 +8728,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8778,7 +8778,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R143">
         <v>0</v>
@@ -8828,7 +8828,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8875,7 +8875,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8925,7 +8925,7 @@
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R146">
         <v>4</v>
@@ -8978,7 +8978,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9025,7 +9025,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9072,7 +9072,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9122,7 +9122,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R150">
         <v>23</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9216,7 +9216,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9266,7 +9266,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R153">
         <v>19</v>
@@ -9316,7 +9316,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9366,7 +9366,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R155">
         <v>21</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9469,7 +9469,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R157">
         <v>9</v>
@@ -9522,7 +9522,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9569,7 +9569,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9616,7 +9616,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9666,7 +9666,7 @@
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R161">
         <v>21</v>
@@ -9719,7 +9719,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R162">
         <v>19</v>
@@ -9769,7 +9769,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9819,7 +9819,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R164">
         <v>5</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9922,7 +9922,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R166">
         <v>7</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10022,7 +10022,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10072,7 +10072,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R169">
         <v>20</v>
@@ -10122,7 +10122,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10169,7 +10169,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10216,7 +10216,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10266,7 +10266,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R173">
         <v>5</v>
@@ -10316,7 +10316,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10366,7 +10366,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R175">
         <v>22</v>
@@ -10416,7 +10416,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10463,7 +10463,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10510,7 +10510,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10557,7 +10557,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10654,7 +10654,7 @@
         <v>1</v>
       </c>
       <c r="Q181">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R181">
         <v>0</v>
@@ -10707,7 +10707,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10757,7 +10757,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R183">
         <v>14</v>
@@ -10807,7 +10807,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10857,7 +10857,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R185">
         <v>13</v>
@@ -10907,7 +10907,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10957,7 +10957,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11004,7 +11004,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11051,7 +11051,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11098,7 +11098,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11145,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11192,7 +11192,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11239,7 +11239,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11289,7 +11289,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R194">
         <v>16</v>
@@ -11342,7 +11342,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R195">
         <v>23</v>
@@ -11392,7 +11392,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11442,7 +11442,7 @@
         <v>1</v>
       </c>
       <c r="Q197">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R197">
         <v>19</v>
@@ -11495,7 +11495,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11545,7 +11545,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R199">
         <v>5</v>
@@ -11595,7 +11595,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11639,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11689,7 +11689,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R202">
         <v>24</v>
@@ -11742,7 +11742,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11792,7 +11792,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R204">
         <v>25</v>
@@ -11842,7 +11842,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11889,7 +11889,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11936,7 +11936,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11983,7 +11983,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12033,7 +12033,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R209">
         <v>23</v>
@@ -12083,7 +12083,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12130,7 +12130,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12174,7 +12174,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12224,7 +12224,7 @@
         <v>1</v>
       </c>
       <c r="Q213">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R213">
         <v>20</v>
@@ -12274,7 +12274,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12321,7 +12321,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12371,7 +12371,7 @@
         <v>1</v>
       </c>
       <c r="Q216">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R216">
         <v>16</v>
@@ -12421,7 +12421,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="Q218">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R218">
         <v>21</v>
@@ -12521,7 +12521,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12571,7 +12571,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R220">
         <v>4</v>
@@ -12621,7 +12621,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12668,7 +12668,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12718,7 +12718,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R223">
         <v>0</v>
@@ -12768,7 +12768,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12812,7 +12812,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12862,7 +12862,7 @@
         <v>1</v>
       </c>
       <c r="Q226">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R226">
         <v>22</v>
@@ -12915,7 +12915,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12965,7 +12965,7 @@
         <v>1</v>
       </c>
       <c r="Q228">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R228">
         <v>9</v>
@@ -13018,7 +13018,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R229">
         <v>4</v>
@@ -13062,10 +13062,10 @@
         <v>1</v>
       </c>
       <c r="P230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q230">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13112,7 +13112,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13159,7 +13159,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13200,10 +13200,10 @@
         <v>1</v>
       </c>
       <c r="P233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q233">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13253,7 +13253,7 @@
         <v>1</v>
       </c>
       <c r="Q234">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R234">
         <v>15</v>
@@ -13306,7 +13306,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13356,7 +13356,7 @@
         <v>1</v>
       </c>
       <c r="Q236">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R236">
         <v>18</v>
@@ -13406,7 +13406,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13456,7 +13456,7 @@
         <v>1</v>
       </c>
       <c r="Q238">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R238">
         <v>0</v>
@@ -13506,7 +13506,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13553,7 +13553,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13603,7 +13603,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13650,7 +13650,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R242">
         <v>14</v>
@@ -13703,7 +13703,7 @@
         <v>1</v>
       </c>
       <c r="Q243">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R243">
         <v>11</v>
@@ -13753,7 +13753,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13803,7 +13803,7 @@
         <v>1</v>
       </c>
       <c r="Q245">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R245">
         <v>26</v>
@@ -13856,7 +13856,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13903,7 +13903,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13950,7 +13950,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14000,7 +14000,7 @@
         <v>1</v>
       </c>
       <c r="Q249">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R249">
         <v>28</v>
@@ -14053,7 +14053,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R250">
         <v>14</v>
@@ -14103,7 +14103,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14153,7 +14153,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R252">
         <v>23</v>
@@ -14203,7 +14203,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14253,7 +14253,7 @@
         <v>1</v>
       </c>
       <c r="Q254">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R254">
         <v>18</v>
@@ -14303,7 +14303,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14353,7 +14353,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14403,7 +14403,7 @@
         <v>1</v>
       </c>
       <c r="Q257">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R257">
         <v>8</v>
@@ -14453,7 +14453,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14500,7 +14500,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14547,7 +14547,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14594,7 +14594,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14641,7 +14641,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14691,7 +14691,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R263">
         <v>17</v>
@@ -14744,7 +14744,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14791,7 +14791,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14838,7 +14838,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14885,7 +14885,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14932,7 +14932,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14979,7 +14979,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15029,7 +15029,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R270">
         <v>12</v>
@@ -15079,7 +15079,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15126,7 +15126,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R272">
         <v>25</v>
@@ -15179,7 +15179,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R273">
         <v>22</v>
@@ -15229,7 +15229,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15276,7 +15276,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15323,7 +15323,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15373,7 +15373,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R277">
         <v>20</v>
@@ -15423,7 +15423,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15470,7 +15470,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15517,7 +15517,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15567,7 +15567,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R281">
         <v>19</v>
@@ -15620,7 +15620,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15667,7 +15667,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15714,7 +15714,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15761,7 +15761,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15808,7 +15808,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15855,7 +15855,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15902,7 +15902,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15952,7 +15952,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R289">
         <v>8</v>
@@ -16002,7 +16002,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16049,7 +16049,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16099,7 +16099,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R292">
         <v>44</v>
@@ -16152,7 +16152,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16202,7 +16202,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R294">
         <v>15</v>
@@ -16255,7 +16255,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16305,7 +16305,7 @@
         <v>1</v>
       </c>
       <c r="Q296">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R296">
         <v>13</v>
@@ -16355,7 +16355,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16402,7 +16402,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16452,7 +16452,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16502,7 +16502,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R300">
         <v>14</v>
@@ -16555,7 +16555,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16602,7 +16602,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16649,7 +16649,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16696,7 +16696,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16743,7 +16743,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16793,7 +16793,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R306">
         <v>10</v>
@@ -16843,7 +16843,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16893,7 +16893,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R308">
         <v>19</v>
@@ -16946,7 +16946,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16996,7 +16996,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R310">
         <v>9</v>
@@ -17046,7 +17046,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17093,7 +17093,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17140,7 +17140,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17187,7 +17187,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17234,7 +17234,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17284,7 +17284,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R316">
         <v>9</v>
@@ -17337,7 +17337,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R317">
         <v>18</v>
@@ -17387,7 +17387,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17434,7 +17434,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17484,7 +17484,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R320">
         <v>15</v>
@@ -17534,7 +17534,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17581,7 +17581,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17631,7 +17631,7 @@
         <v>1</v>
       </c>
       <c r="Q323">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R323">
         <v>19</v>
@@ -17681,7 +17681,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17731,7 +17731,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R325">
         <v>19</v>
@@ -17781,7 +17781,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17828,7 +17828,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17878,7 +17878,7 @@
         <v>1</v>
       </c>
       <c r="Q328">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R328">
         <v>25</v>
@@ -17928,7 +17928,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17975,7 +17975,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18022,7 +18022,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18069,7 +18069,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18116,7 +18116,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18163,7 +18163,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18213,7 +18213,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R335">
         <v>5</v>
@@ -18263,7 +18263,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18310,7 +18310,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18357,7 +18357,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18404,7 +18404,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18451,7 +18451,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18498,7 +18498,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18545,7 +18545,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18592,7 +18592,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18639,7 +18639,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18686,7 +18686,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18736,7 +18736,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R346">
         <v>31</v>
@@ -18789,7 +18789,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18839,7 +18839,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R348">
         <v>12</v>
@@ -18889,7 +18889,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18936,7 +18936,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18983,7 +18983,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19030,7 +19030,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19080,7 +19080,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R353">
         <v>21</v>
@@ -19130,7 +19130,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19177,7 +19177,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19227,7 +19227,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R356">
         <v>2</v>
@@ -19271,10 +19271,10 @@
         <v>1</v>
       </c>
       <c r="P357" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q357">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19315,10 +19315,10 @@
         <v>1</v>
       </c>
       <c r="P358" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q358">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19368,7 +19368,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R359">
         <v>18</v>
@@ -19418,7 +19418,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19465,7 +19465,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19512,7 +19512,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19559,7 +19559,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19606,7 +19606,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19656,7 +19656,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R365">
         <v>0</v>
@@ -19709,7 +19709,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19756,7 +19756,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19809,7 +19809,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R368">
         <v>8</v>
@@ -19859,7 +19859,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19906,7 +19906,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19953,7 +19953,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20003,7 +20003,7 @@
         <v>1</v>
       </c>
       <c r="Q372">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R372">
         <v>12</v>
@@ -20056,7 +20056,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20106,7 +20106,7 @@
         <v>1</v>
       </c>
       <c r="Q374">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R374">
         <v>9</v>
@@ -20156,7 +20156,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20206,7 +20206,7 @@
         <v>1</v>
       </c>
       <c r="Q376">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R376">
         <v>15</v>
@@ -20256,7 +20256,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20303,7 +20303,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20350,7 +20350,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20397,7 +20397,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20447,7 +20447,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R381">
         <v>16</v>
@@ -20500,7 +20500,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R382">
         <v>17</v>
@@ -20550,7 +20550,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20600,7 +20600,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R384">
         <v>9</v>
@@ -20650,7 +20650,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20700,7 +20700,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R386">
         <v>7</v>
@@ -20750,7 +20750,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20794,7 +20794,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20841,7 +20841,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20888,7 +20888,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20938,7 +20938,7 @@
         <v>1</v>
       </c>
       <c r="Q391">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R391">
         <v>18</v>
@@ -20991,7 +20991,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R392">
         <v>24</v>
@@ -21041,7 +21041,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21088,7 +21088,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21135,7 +21135,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21182,7 +21182,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21232,7 +21232,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R397">
         <v>26</v>
@@ -21285,7 +21285,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21335,7 +21335,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R399">
         <v>13</v>
@@ -21388,7 +21388,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21438,7 +21438,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R401">
         <v>7</v>
@@ -21488,7 +21488,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21538,7 +21538,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R403">
         <v>10</v>
@@ -21588,7 +21588,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21635,7 +21635,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21682,7 +21682,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21732,7 +21732,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21782,7 +21782,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R408">
         <v>33</v>
@@ -21832,7 +21832,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21879,7 +21879,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21926,7 +21926,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21973,7 +21973,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22020,7 +22020,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22067,7 +22067,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22114,7 +22114,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22161,7 +22161,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22208,7 +22208,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22258,7 +22258,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R418">
         <v>12</v>
@@ -22311,7 +22311,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R419">
         <v>16</v>
@@ -22361,7 +22361,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22408,7 +22408,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22458,7 +22458,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R422">
         <v>0</v>
@@ -22505,7 +22505,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22555,7 +22555,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R424">
         <v>28</v>
@@ -22605,7 +22605,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22655,7 +22655,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22705,7 +22705,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R427">
         <v>16</v>
@@ -22755,7 +22755,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22805,7 +22805,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R429">
         <v>15</v>
@@ -22858,7 +22858,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22908,7 +22908,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R431">
         <v>21</v>
@@ -22958,7 +22958,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23005,7 +23005,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23052,7 +23052,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23099,7 +23099,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23146,7 +23146,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23193,7 +23193,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23243,7 +23243,7 @@
         <v>1</v>
       </c>
       <c r="Q438">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R438">
         <v>23</v>
@@ -23293,7 +23293,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23340,7 +23340,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23528,7 +23528,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23578,7 +23578,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R445">
         <v>29</v>
@@ -23628,7 +23628,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23678,7 +23678,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R447">
         <v>28</v>
@@ -23731,7 +23731,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23781,7 +23781,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R449">
         <v>25</v>
@@ -23834,7 +23834,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23884,7 +23884,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R451">
         <v>24</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24031,7 +24031,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24078,7 +24078,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24125,7 +24125,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24222,7 +24222,7 @@
         <v>1</v>
       </c>
       <c r="Q458">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R458">
         <v>5</v>
@@ -24272,7 +24272,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24322,7 +24322,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24372,7 +24372,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R461">
         <v>26</v>
@@ -24422,7 +24422,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24472,7 +24472,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R463">
         <v>26</v>
@@ -24522,7 +24522,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24572,7 +24572,7 @@
         <v>1</v>
       </c>
       <c r="Q465">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R465">
         <v>24</v>
@@ -24622,7 +24622,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24713,7 +24713,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24760,7 +24760,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24807,7 +24807,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24854,7 +24854,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24904,7 +24904,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R472">
         <v>4</v>
@@ -24951,7 +24951,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -24998,7 +24998,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25045,7 +25045,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25139,7 +25139,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25186,7 +25186,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25233,7 +25233,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25421,7 +25421,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25468,7 +25468,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25518,7 +25518,7 @@
         <v>1</v>
       </c>
       <c r="Q485">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R485">
         <v>2</v>
@@ -25565,7 +25565,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25659,7 +25659,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25709,7 +25709,7 @@
         <v>1</v>
       </c>
       <c r="Q489">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R489">
         <v>4</v>
@@ -25759,7 +25759,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25856,7 +25856,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -25906,7 +25906,7 @@
         <v>1</v>
       </c>
       <c r="Q493">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R493">
         <v>26</v>
@@ -25956,7 +25956,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -25997,10 +25997,10 @@
         <v>1</v>
       </c>
       <c r="P495" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q495">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
